--- a/Testcases.xlsx
+++ b/Testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumes\Desktop\CIRCLE NEDIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48AAFA8-A69D-44C2-B724-B9E0E91FB9FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8D1D6C-8CDA-4B17-95C8-D2033C2F558F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16200" xr2:uid="{7E26C379-ACCB-4A86-8AF6-8013D7EE4BF2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>{
     "error": "Unauthorized",
@@ -138,6 +138,9 @@
 name:
 type:offtime,offtime
 id:N,N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if there is no spec I would assume some mandatory fields and use implementation first style to verify api calls manually and check responses. I would then create automation tests based on my assumptions and validate the assumptions with the requirement document for the product. </t>
   </si>
 </sst>
 </file>
@@ -492,106 +495,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DD0718-7B63-4723-BE66-531C4C8C7883}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="82.140625" customWidth="1"/>
-    <col min="2" max="2" width="82.28515625" customWidth="1"/>
-    <col min="3" max="3" width="78" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="78" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="82.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>500</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
+      <c r="A3" t="s">
+        <v>9</v>
       </c>
       <c r="B3">
         <v>401</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
+      <c r="A4" t="s">
+        <v>6</v>
       </c>
       <c r="B4">
         <v>200</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>200</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>500</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>500</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>500</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
